--- a/Project2 Data Spreadsheet & Chart_v1.xlsx
+++ b/Project2 Data Spreadsheet & Chart_v1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derekfinlinson\git\6310TeamProject2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="25660" windowHeight="16600"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="25665" windowHeight="16605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
     <sheet name="Memory" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
   <si>
     <t>Scenario 1</t>
   </si>
@@ -83,6 +88,21 @@
       </rPr>
       <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 10, Vis Rate = 1</t>
+  </si>
+  <si>
+    <t>Scenario 6</t>
+  </si>
+  <si>
+    <t>Scenario 7</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 10, Vis Rate = 3</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 5, Vis Rate = 1</t>
   </si>
 </sst>
 </file>
@@ -187,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -204,12 +224,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$2</c:f>
+              <c:f>Time!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -271,7 +302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$1:$E$1</c:f>
+              <c:f>Time!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -291,7 +322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$2:$E$2</c:f>
+              <c:f>Time!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -304,7 +335,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$3</c:f>
+              <c:f>Time!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -316,7 +347,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$1:$E$1</c:f>
+              <c:f>Time!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -336,7 +367,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$3:$E$3</c:f>
+              <c:f>Time!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -349,7 +380,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$4</c:f>
+              <c:f>Time!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -361,7 +392,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$1:$E$1</c:f>
+              <c:f>Time!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -381,7 +412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$4:$E$4</c:f>
+              <c:f>Time!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -398,20 +429,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124093048"/>
-        <c:axId val="2112215480"/>
+        <c:axId val="443744520"/>
+        <c:axId val="443742168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124093048"/>
+        <c:axId val="443744520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112215480"/>
+        <c:crossAx val="443742168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -419,7 +451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112215480"/>
+        <c:axId val="443742168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +462,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124093048"/>
+        <c:crossAx val="443744520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -477,6 +509,486 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 3)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="443748832"/>
+        <c:axId val="443752752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443748832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443752752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443752752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443748832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 4)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="443753144"/>
+        <c:axId val="443753536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443753144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443753536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443753536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443753144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
               <a:t>Memory Usage (Scenario 5)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
@@ -498,7 +1010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$22</c:f>
+              <c:f>Memory!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +1022,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$21:$E$21</c:f>
+              <c:f>Memory!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -530,7 +1042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$22:$E$22</c:f>
+              <c:f>Memory!$B$27:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -543,7 +1055,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$23</c:f>
+              <c:f>Memory!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -555,7 +1067,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$21:$E$21</c:f>
+              <c:f>Memory!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -575,7 +1087,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$23:$E$23</c:f>
+              <c:f>Memory!$B$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -588,7 +1100,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$24</c:f>
+              <c:f>Memory!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -600,7 +1112,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$21:$E$21</c:f>
+              <c:f>Memory!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -620,7 +1132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$24:$E$24</c:f>
+              <c:f>Memory!$B$29:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -637,20 +1149,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060469480"/>
-        <c:axId val="-2061026872"/>
+        <c:axId val="443759024"/>
+        <c:axId val="443756280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060469480"/>
+        <c:axId val="443759024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061026872"/>
+        <c:crossAx val="443756280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -658,7 +1171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061026872"/>
+        <c:axId val="443756280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +1182,487 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060469480"/>
+        <c:crossAx val="443759024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 6)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="273583368"/>
+        <c:axId val="273586896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="273583368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="273586896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273586896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="273583368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 7)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$38:$E$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$39:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$38:$E$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$40:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$38:$E$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$41:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="255403360"/>
+        <c:axId val="255399048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="255403360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255399048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255399048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255403360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,7 +1729,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$7</c:f>
+              <c:f>Time!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -748,7 +1741,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$6:$E$6</c:f>
+              <c:f>Time!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -768,7 +1761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$7:$E$7</c:f>
+              <c:f>Time!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -781,7 +1774,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$8</c:f>
+              <c:f>Time!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -793,7 +1786,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$6:$E$6</c:f>
+              <c:f>Time!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -813,7 +1806,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$8:$E$8</c:f>
+              <c:f>Time!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -826,7 +1819,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$9</c:f>
+              <c:f>Time!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -838,7 +1831,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$6:$E$6</c:f>
+              <c:f>Time!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -858,7 +1851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$9:$E$9</c:f>
+              <c:f>Time!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -875,20 +1868,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060739896"/>
-        <c:axId val="-2060736920"/>
+        <c:axId val="443752360"/>
+        <c:axId val="443741384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060739896"/>
+        <c:axId val="443752360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060736920"/>
+        <c:crossAx val="443741384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +1890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060736920"/>
+        <c:axId val="443741384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +1901,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060739896"/>
+        <c:crossAx val="443752360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,7 +1968,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$12</c:f>
+              <c:f>Time!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -986,7 +1980,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$11:$E$11</c:f>
+              <c:f>Time!$B$14:$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1006,7 +2000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$12:$E$12</c:f>
+              <c:f>Time!$B$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1019,7 +2013,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$13</c:f>
+              <c:f>Time!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1031,7 +2025,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$11:$E$11</c:f>
+              <c:f>Time!$B$14:$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1051,7 +2045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$13:$E$13</c:f>
+              <c:f>Time!$B$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1064,7 +2058,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$14</c:f>
+              <c:f>Time!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1076,7 +2070,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$11:$E$11</c:f>
+              <c:f>Time!$B$14:$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1096,7 +2090,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$14:$E$14</c:f>
+              <c:f>Time!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1113,20 +2107,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060699960"/>
-        <c:axId val="-2060696984"/>
+        <c:axId val="443746872"/>
+        <c:axId val="443742952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060699960"/>
+        <c:axId val="443746872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060696984"/>
+        <c:crossAx val="443742952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,7 +2129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060696984"/>
+        <c:axId val="443742952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +2140,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060699960"/>
+        <c:crossAx val="443746872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,7 +2192,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1212,7 +2206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$17</c:f>
+              <c:f>Time!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1224,7 +2218,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$16:$E$16</c:f>
+              <c:f>Time!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1244,7 +2238,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$17:$E$17</c:f>
+              <c:f>Time!$B$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1257,7 +2251,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$18</c:f>
+              <c:f>Time!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1269,7 +2263,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$16:$E$16</c:f>
+              <c:f>Time!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1289,7 +2283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$18:$E$18</c:f>
+              <c:f>Time!$B$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1302,7 +2296,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$19</c:f>
+              <c:f>Time!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1314,7 +2308,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$16:$E$16</c:f>
+              <c:f>Time!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1334,7 +2328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$19:$E$19</c:f>
+              <c:f>Time!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1351,20 +2345,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060663256"/>
-        <c:axId val="-2060660280"/>
+        <c:axId val="443747264"/>
+        <c:axId val="443740208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060663256"/>
+        <c:axId val="443747264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060660280"/>
+        <c:crossAx val="443740208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060660280"/>
+        <c:axId val="443740208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,14 +2378,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060663256"/>
+        <c:crossAx val="443747264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1445,11 +2439,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$22</c:f>
+              <c:f>Time!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1461,7 +2455,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$21:$E$21</c:f>
+              <c:f>Time!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1481,7 +2475,142 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$22:$E$22</c:f>
+              <c:f>Time!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$B$27:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1491,10 +2620,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$23</c:f>
+              <c:f>Time!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1506,7 +2635,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$21:$E$21</c:f>
+              <c:f>Time!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1526,7 +2655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$23:$E$23</c:f>
+              <c:f>Time!$B$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1536,10 +2665,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Time!$A$24</c:f>
+              <c:f>Time!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1551,7 +2680,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$B$21:$E$21</c:f>
+              <c:f>Time!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1571,7 +2700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$B$24:$E$24</c:f>
+              <c:f>Time!$B$29:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1588,20 +2717,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060625688"/>
-        <c:axId val="-2060622712"/>
+        <c:axId val="443740992"/>
+        <c:axId val="443750008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060625688"/>
+        <c:axId val="443740992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060622712"/>
+        <c:crossAx val="443750008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1609,7 +2739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060622712"/>
+        <c:axId val="443750008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +2750,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060625688"/>
+        <c:crossAx val="443740992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1666,12 +2796,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 1)</a:t>
+              <a:t>Time of execution (Scenario 6)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8375871119558273E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1686,7 +2823,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$2</c:f>
+              <c:f>Time!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1698,7 +2835,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$1:$E$1</c:f>
+              <c:f>Time!$B$32:$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1718,7 +2855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$2:$E$2</c:f>
+              <c:f>Time!$B$33:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1731,7 +2868,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$3</c:f>
+              <c:f>Time!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1743,7 +2880,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$1:$E$1</c:f>
+              <c:f>Time!$B$32:$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1763,7 +2900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$3:$E$3</c:f>
+              <c:f>Time!$B$34:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1776,7 +2913,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$4</c:f>
+              <c:f>Time!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1788,7 +2925,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$1:$E$1</c:f>
+              <c:f>Time!$B$32:$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1808,7 +2945,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$4:$E$4</c:f>
+              <c:f>Time!$B$35:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1825,20 +2962,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2133697336"/>
-        <c:axId val="2133700312"/>
+        <c:axId val="443745696"/>
+        <c:axId val="443741776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133697336"/>
+        <c:axId val="443745696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133700312"/>
+        <c:crossAx val="443741776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1846,7 +2984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133700312"/>
+        <c:axId val="443741776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,14 +2995,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133697336"/>
+        <c:crossAx val="443745696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1904,13 +3041,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 2)</a:t>
+              <a:t>Time of execution (Scenario 7)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8375871119558273E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1925,7 +3068,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$7</c:f>
+              <c:f>Time!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1937,7 +3080,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$6:$E$6</c:f>
+              <c:f>Time!$B$38:$E$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1957,7 +3100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$7:$E$7</c:f>
+              <c:f>Time!$B$39:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1970,7 +3113,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$8</c:f>
+              <c:f>Time!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1982,7 +3125,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$6:$E$6</c:f>
+              <c:f>Time!$B$38:$E$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2002,7 +3145,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$8:$E$8</c:f>
+              <c:f>Time!$B$40:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2015,7 +3158,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$9</c:f>
+              <c:f>Time!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2027,7 +3170,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$6:$E$6</c:f>
+              <c:f>Time!$B$38:$E$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2047,7 +3190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$9:$E$9</c:f>
+              <c:f>Time!$B$41:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2064,20 +3207,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060582808"/>
-        <c:axId val="-2060579832"/>
+        <c:axId val="443746088"/>
+        <c:axId val="443750400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060582808"/>
+        <c:axId val="443746088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060579832"/>
+        <c:crossAx val="443750400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2085,7 +3229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060579832"/>
+        <c:axId val="443750400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,14 +3240,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060582808"/>
+        <c:crossAx val="443746088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2143,9 +3286,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 3)</a:t>
+              <a:t>Memory Usage (Scenario 1)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2164,7 +3306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$12</c:f>
+              <c:f>Memory!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2176,7 +3318,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$11:$E$11</c:f>
+              <c:f>Memory!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2196,7 +3338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$12:$E$12</c:f>
+              <c:f>Memory!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2209,7 +3351,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$13</c:f>
+              <c:f>Memory!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2221,7 +3363,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$11:$E$11</c:f>
+              <c:f>Memory!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2241,7 +3383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$13:$E$13</c:f>
+              <c:f>Memory!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2254,7 +3396,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$14</c:f>
+              <c:f>Memory!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2266,7 +3408,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$11:$E$11</c:f>
+              <c:f>Memory!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2286,7 +3428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:f>Memory!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2303,20 +3445,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060545336"/>
-        <c:axId val="-2060542360"/>
+        <c:axId val="443751184"/>
+        <c:axId val="443751576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060545336"/>
+        <c:axId val="443751184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060542360"/>
+        <c:crossAx val="443751576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2324,7 +3467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060542360"/>
+        <c:axId val="443751576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +3478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060545336"/>
+        <c:crossAx val="443751184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2382,7 +3525,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 4)</a:t>
+              <a:t>Memory Usage (Scenario 2)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2403,7 +3546,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$17</c:f>
+              <c:f>Memory!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2415,7 +3558,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$16:$E$16</c:f>
+              <c:f>Memory!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2435,7 +3578,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$17:$E$17</c:f>
+              <c:f>Memory!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2448,7 +3591,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$18</c:f>
+              <c:f>Memory!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2460,7 +3603,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$16:$E$16</c:f>
+              <c:f>Memory!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2480,7 +3623,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$18:$E$18</c:f>
+              <c:f>Memory!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2493,7 +3636,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$19</c:f>
+              <c:f>Memory!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2505,7 +3648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$16:$E$16</c:f>
+              <c:f>Memory!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2525,7 +3668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$19:$E$19</c:f>
+              <c:f>Memory!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2542,20 +3685,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060507816"/>
-        <c:axId val="-2060504840"/>
+        <c:axId val="443755888"/>
+        <c:axId val="443759808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060507816"/>
+        <c:axId val="443755888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060504840"/>
+        <c:crossAx val="443759808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,7 +3707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060504840"/>
+        <c:axId val="443759808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +3718,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060507816"/>
+        <c:crossAx val="443755888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2602,13 +3746,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2632,13 +3776,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2662,13 +3806,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2692,13 +3836,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2722,13 +3866,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2748,6 +3892,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2757,13 +3965,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2787,13 +3995,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2817,13 +4025,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2847,13 +4055,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2877,13 +4085,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2898,6 +4106,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3191,244 +4463,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1"/>
-    <row r="6" spans="1:5" ht="31" thickBot="1">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1"/>
-    <row r="11" spans="1:5" ht="31" thickBot="1">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1">
-      <c r="A12" s="3" t="s">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1">
-      <c r="A14" s="5" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1"/>
-    <row r="16" spans="1:5" ht="31" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1"/>
-    <row r="21" spans="1:5" ht="31" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
+    <row r="23" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3444,244 +4833,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1"/>
-    <row r="6" spans="1:5" ht="31" thickBot="1">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1"/>
-    <row r="11" spans="1:5" ht="31" thickBot="1">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1">
-      <c r="A12" s="3" t="s">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1">
-      <c r="A14" s="5" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1"/>
-    <row r="16" spans="1:5" ht="31" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1"/>
-    <row r="21" spans="1:5" ht="31" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project2 Data Spreadsheet & Chart_v1.xlsx
+++ b/Project2 Data Spreadsheet & Chart_v1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Time" sheetId="1" r:id="rId1"/>
     <sheet name="Memory" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
   <si>
     <t>Scenario 1</t>
   </si>
@@ -104,6 +104,18 @@
   <si>
     <t>Grid = 15, Sim Rate = 5, Vis Rate = 1</t>
   </si>
+  <si>
+    <t>Grid = 10, Sim Rate = 10, Vis Rate = 1</t>
+  </si>
+  <si>
+    <t>Grid = 20, Sim Rate = 10, Vis Rate = 1</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 15, Vis Rate = 1</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 10, Vis Rate = 5</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,11 +215,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -226,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,6 +350,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1900449999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.452920000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.452920000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -371,6 +407,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.3811655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2900550000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1599044999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4441686000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -416,6 +464,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.848341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.994949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20833333000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.295082000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -429,11 +489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443744520"/>
-        <c:axId val="443742168"/>
+        <c:axId val="329201696"/>
+        <c:axId val="329206008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443744520"/>
+        <c:axId val="329201696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +503,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443742168"/>
+        <c:crossAx val="329206008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -451,7 +511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443742168"/>
+        <c:axId val="329206008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +522,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443744520"/>
+        <c:crossAx val="329201696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -566,6 +626,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>441912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445064</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -611,6 +683,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>444416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>445984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>446312</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -656,6 +740,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>446184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2586880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12129312</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -669,11 +765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443748832"/>
-        <c:axId val="443752752"/>
+        <c:axId val="337845776"/>
+        <c:axId val="337854008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443748832"/>
+        <c:axId val="337845776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +779,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443752752"/>
+        <c:crossAx val="337854008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,7 +787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443752752"/>
+        <c:axId val="337854008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +798,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443748832"/>
+        <c:crossAx val="337845776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,6 +902,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>461176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -851,6 +959,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465576</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -896,6 +1016,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>465448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -909,11 +1041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443753144"/>
-        <c:axId val="443753536"/>
+        <c:axId val="337844208"/>
+        <c:axId val="337848912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443753144"/>
+        <c:axId val="337844208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +1055,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443753536"/>
+        <c:crossAx val="337848912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -931,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443753536"/>
+        <c:axId val="337848912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +1074,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443753144"/>
+        <c:crossAx val="337844208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1046,6 +1178,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>461176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1091,6 +1235,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465576</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1136,6 +1292,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>465448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10264520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3842704</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1149,11 +1317,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443759024"/>
-        <c:axId val="443756280"/>
+        <c:axId val="337844992"/>
+        <c:axId val="337843816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443759024"/>
+        <c:axId val="337844992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1331,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443756280"/>
+        <c:crossAx val="337843816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443756280"/>
+        <c:axId val="337843816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1350,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443759024"/>
+        <c:crossAx val="337844992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,6 +1454,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464440</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1331,6 +1511,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466424</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1376,6 +1568,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>466368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>468792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>469184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>469608</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1389,11 +1593,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="273583368"/>
-        <c:axId val="273586896"/>
+        <c:axId val="337850480"/>
+        <c:axId val="337846560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="273583368"/>
+        <c:axId val="337850480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1607,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273586896"/>
+        <c:crossAx val="337846560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,7 +1615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273586896"/>
+        <c:axId val="337846560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1626,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273583368"/>
+        <c:crossAx val="337850480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,6 +1730,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464424</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1571,6 +1787,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>464296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>479680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481784</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1616,6 +1844,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>466968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1832160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11375272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33186568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1629,11 +1869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="255403360"/>
-        <c:axId val="255399048"/>
+        <c:axId val="337852048"/>
+        <c:axId val="337841856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255403360"/>
+        <c:axId val="337852048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1883,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255399048"/>
+        <c:crossAx val="337841856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1651,7 +1891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255399048"/>
+        <c:axId val="337841856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255403360"/>
+        <c:crossAx val="337852048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,6 +2005,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.588542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.710784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.851485</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1810,6 +2062,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.544041999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.053476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.991342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.337778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1855,6 +2119,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.505000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20840278000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17368056000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1868,11 +2144,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443752360"/>
-        <c:axId val="443741384"/>
+        <c:axId val="329213064"/>
+        <c:axId val="329211888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443752360"/>
+        <c:axId val="329213064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +2158,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443741384"/>
+        <c:crossAx val="329211888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1890,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443741384"/>
+        <c:axId val="329211888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +2177,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443752360"/>
+        <c:crossAx val="329213064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2004,6 +2280,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1026.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9515419999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.879828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.995671</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2049,6 +2337,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.926406999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4093819999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5381264999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4215055000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2094,6 +2394,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.873913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.766055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20840278000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17368056000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2107,11 +2419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443746872"/>
-        <c:axId val="443742952"/>
+        <c:axId val="329205616"/>
+        <c:axId val="329203264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443746872"/>
+        <c:axId val="329205616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2433,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443742952"/>
+        <c:crossAx val="329203264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,7 +2441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443742952"/>
+        <c:axId val="329203264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2452,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443746872"/>
+        <c:crossAx val="329205616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2192,6 +2504,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2242,6 +2555,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2342340000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.461884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.417040999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2287,6 +2612,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.403587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1966429999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0311763000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2332,6 +2669,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.420092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.834710999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8005870000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4663024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2345,11 +2694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443747264"/>
-        <c:axId val="443740208"/>
+        <c:axId val="329205224"/>
+        <c:axId val="329209144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443747264"/>
+        <c:axId val="329205224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2708,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443740208"/>
+        <c:crossAx val="329209144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2367,7 +2716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443740208"/>
+        <c:axId val="329209144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,13 +2727,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443747264"/>
+        <c:crossAx val="329205224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2479,6 +2829,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1007.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1973094999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.330358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.392858</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2524,6 +2886,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.518018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4117650000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3374085000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0240639999999992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2569,6 +2943,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.420092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.97006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10420139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.754719999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2614,6 +3000,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1007.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1973094999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.330358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.392858</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2659,6 +3057,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.518018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4117650000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3374085000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0240639999999992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2704,6 +3114,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.420092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.97006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10420139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.754719999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2717,11 +3139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443740992"/>
-        <c:axId val="443750008"/>
+        <c:axId val="329202872"/>
+        <c:axId val="329210320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443740992"/>
+        <c:axId val="329202872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,7 +3153,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443750008"/>
+        <c:crossAx val="329210320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2739,7 +3161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443750008"/>
+        <c:axId val="329210320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +3172,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443740992"/>
+        <c:crossAx val="329202872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,6 +3281,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1009.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0406628000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4606240000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5037479999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2904,6 +3338,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.4835820000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3613935000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3179854999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2567377000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2949,6 +3395,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7836611000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6964005999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3502736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5853143000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2962,11 +3420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443745696"/>
-        <c:axId val="443741776"/>
+        <c:axId val="329204048"/>
+        <c:axId val="329206400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443745696"/>
+        <c:axId val="329204048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +3434,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443741776"/>
+        <c:crossAx val="329206400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2984,7 +3442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443741776"/>
+        <c:axId val="329206400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3453,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443745696"/>
+        <c:crossAx val="329204048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3104,6 +3562,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1010.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8658650000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7133815000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.73422856</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3149,6 +3619,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7188064999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7104073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6460724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8391674</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3194,6 +3676,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3029465999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20840278000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20861112000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13923611</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3207,11 +3701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443746088"/>
-        <c:axId val="443750400"/>
+        <c:axId val="329211496"/>
+        <c:axId val="329211104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443746088"/>
+        <c:axId val="329211496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3715,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443750400"/>
+        <c:crossAx val="329211104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3229,7 +3723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443750400"/>
+        <c:axId val="329211104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3240,7 +3734,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443746088"/>
+        <c:crossAx val="329211496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3342,6 +3836,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>461080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464040</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3387,6 +3893,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465552</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3432,6 +3950,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>465352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9482696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6001856</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3445,11 +3975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443751184"/>
-        <c:axId val="443751576"/>
+        <c:axId val="329212280"/>
+        <c:axId val="329202088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443751184"/>
+        <c:axId val="329212280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3989,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443751576"/>
+        <c:crossAx val="329202088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3467,7 +3997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443751576"/>
+        <c:axId val="329202088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +4008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443751184"/>
+        <c:crossAx val="329212280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3582,6 +4112,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>516136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>518768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>519288</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3627,6 +4169,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>518640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3672,6 +4226,18 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>520736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2795712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14383064</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3685,11 +4251,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443755888"/>
-        <c:axId val="443759808"/>
+        <c:axId val="329202480"/>
+        <c:axId val="329204440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443755888"/>
+        <c:axId val="329202480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,7 +4265,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443759808"/>
+        <c:crossAx val="329204440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3707,7 +4273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443759808"/>
+        <c:axId val="329204440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3718,7 +4284,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443755888"/>
+        <c:crossAx val="329202480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4465,7 +5031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4502,32 +5070,56 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.1900449999999996</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13.452920000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>13.452920000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="4">
+        <v>13.3811655</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.2900550000000006</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.1599044999999997</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.4441686000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="4">
+        <v>11.848341</v>
+      </c>
+      <c r="C5" s="4">
+        <v>14.994949</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.20833333000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>33.295082000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4551,32 +5143,56 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10.588542</v>
+      </c>
+      <c r="D9" s="4">
+        <v>14.710784</v>
+      </c>
+      <c r="E9" s="4">
+        <v>14.851485</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="4">
+        <v>15.544041999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16.053476</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12.991342</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13.337778</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="4">
+        <v>12.505000000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.20840278000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.17368056000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4600,32 +5216,56 @@
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="4">
+        <v>1026.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.9515419999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12.879828</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12.995671</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4">
+        <v>12.926406999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.4093819999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6.5381264999999997</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6.4215055000000003</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="4">
+        <v>10.873913</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13.766055</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.20840278000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.17368056000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4649,28 +5289,52 @@
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="4">
+        <v>1014</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.2342340000000007</v>
+      </c>
+      <c r="D21" s="4">
+        <v>13.461884</v>
+      </c>
+      <c r="E21" s="4">
+        <v>13.417040999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="4">
+        <v>13.403587</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7.1966429999999999</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.0311763000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="4">
+        <v>11.420092</v>
+      </c>
+      <c r="C23" s="4">
+        <v>24.834710999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8.8005870000000002</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5.4663024</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -4698,28 +5362,52 @@
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="4">
+        <v>1007.5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9.1973094999999994</v>
+      </c>
+      <c r="D27" s="4">
+        <v>13.330358</v>
+      </c>
+      <c r="E27" s="4">
+        <v>13.392858</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="4">
+        <v>13.518018</v>
+      </c>
+      <c r="C28" s="4">
+        <v>8.4117650000000008</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7.3374085000000004</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8.0240639999999992</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="4">
+        <v>11.420092</v>
+      </c>
+      <c r="C29" s="4">
+        <v>17.97006</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.10420139</v>
+      </c>
+      <c r="E29" s="4">
+        <v>37.754719999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4747,32 +5435,56 @@
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="4">
+        <v>1009.5</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.0406628000000002</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.4606240000000001</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4.5037479999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="4">
+        <v>4.4835820000000002</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4.3613935000000001</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4.3179854999999998</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4.2567377000000004</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="4">
+        <v>3.7836611000000002</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4.6964005999999996</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2.3502736</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.5853143000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4796,28 +5508,52 @@
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="4">
+        <v>1010.5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.8658650000000001</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2.7133815000000001</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2.73422856</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="4">
+        <v>2.7188064999999999</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2.7104073</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2.6460724</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2.8391674</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="4">
+        <v>2.3029465999999998</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.20840278000000001</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.20861112000000001</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.13923611</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4833,10 +5569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,14 +5582,15 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4870,39 +5607,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>461080</v>
+      </c>
+      <c r="C3" s="4">
+        <v>462784</v>
+      </c>
+      <c r="D3" s="4">
+        <v>463712</v>
+      </c>
+      <c r="E3" s="4">
+        <v>464040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>463552</v>
+      </c>
+      <c r="C4" s="4">
+        <v>464768</v>
+      </c>
+      <c r="D4" s="4">
+        <v>465192</v>
+      </c>
+      <c r="E4" s="4">
+        <v>465552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>465352</v>
+      </c>
+      <c r="C5" s="4">
+        <v>467240</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9482696</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6001856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4919,39 +5680,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>516136</v>
+      </c>
+      <c r="C9" s="4">
+        <v>518128</v>
+      </c>
+      <c r="D9" s="4">
+        <v>518768</v>
+      </c>
+      <c r="E9" s="4">
+        <v>519288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>518640</v>
+      </c>
+      <c r="C10" s="4">
+        <v>520504</v>
+      </c>
+      <c r="D10" s="4">
+        <v>520280</v>
+      </c>
+      <c r="E10" s="4">
+        <v>520536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>520736</v>
+      </c>
+      <c r="C11" s="4">
+        <v>522592</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2795712</v>
+      </c>
+      <c r="E11" s="4">
+        <v>14383064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -4968,36 +5753,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>441912</v>
+      </c>
+      <c r="C15" s="4">
+        <v>443912</v>
+      </c>
+      <c r="D15" s="4">
+        <v>444328</v>
+      </c>
+      <c r="E15" s="4">
+        <v>445064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4">
+        <v>444416</v>
+      </c>
+      <c r="C16" s="4">
+        <v>445632</v>
+      </c>
+      <c r="D16" s="4">
+        <v>445984</v>
+      </c>
+      <c r="E16" s="4">
+        <v>446312</v>
+      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="4">
+        <v>446184</v>
+      </c>
+      <c r="C17" s="4">
+        <v>448168</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2586880</v>
+      </c>
+      <c r="E17" s="4">
+        <v>12129312</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5021,32 +5831,56 @@
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="4">
+        <v>461176</v>
+      </c>
+      <c r="C21" s="4">
+        <v>462952</v>
+      </c>
+      <c r="D21" s="4">
+        <v>463808</v>
+      </c>
+      <c r="E21" s="4">
+        <v>464136</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="4">
+        <v>463648</v>
+      </c>
+      <c r="C22" s="4">
+        <v>464864</v>
+      </c>
+      <c r="D22" s="4">
+        <v>465288</v>
+      </c>
+      <c r="E22" s="4">
+        <v>465576</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="4">
+        <v>465448</v>
+      </c>
+      <c r="C23" s="4">
+        <v>467304</v>
+      </c>
+      <c r="D23" s="4">
+        <v>467696</v>
+      </c>
+      <c r="E23" s="4">
+        <v>468664</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5070,32 +5904,56 @@
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="4">
+        <v>461176</v>
+      </c>
+      <c r="C27" s="4">
+        <v>463176</v>
+      </c>
+      <c r="D27" s="4">
+        <v>463808</v>
+      </c>
+      <c r="E27" s="4">
+        <v>464136</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="4">
+        <v>463648</v>
+      </c>
+      <c r="C28" s="4">
+        <v>464936</v>
+      </c>
+      <c r="D28" s="4">
+        <v>465216</v>
+      </c>
+      <c r="E28" s="4">
+        <v>465576</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="4">
+        <v>465448</v>
+      </c>
+      <c r="C29" s="4">
+        <v>467400</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10264520</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3842704</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5119,32 +5977,56 @@
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="4">
+        <v>1196056</v>
+      </c>
+      <c r="C33" s="4">
+        <v>463320</v>
+      </c>
+      <c r="D33" s="4">
+        <v>463952</v>
+      </c>
+      <c r="E33" s="4">
+        <v>464440</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="4">
+        <v>463792</v>
+      </c>
+      <c r="C34" s="4">
+        <v>466128</v>
+      </c>
+      <c r="D34" s="4">
+        <v>467272</v>
+      </c>
+      <c r="E34" s="4">
+        <v>466424</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="4">
+        <v>466368</v>
+      </c>
+      <c r="C35" s="4">
+        <v>468792</v>
+      </c>
+      <c r="D35" s="4">
+        <v>469184</v>
+      </c>
+      <c r="E35" s="4">
+        <v>469608</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5168,28 +6050,52 @@
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="4">
+        <v>1196056</v>
+      </c>
+      <c r="C39" s="4">
+        <v>463680</v>
+      </c>
+      <c r="D39" s="4">
+        <v>464096</v>
+      </c>
+      <c r="E39" s="4">
+        <v>464424</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="4">
+        <v>464296</v>
+      </c>
+      <c r="C40" s="4">
+        <v>479680</v>
+      </c>
+      <c r="D40" s="4">
+        <v>476816</v>
+      </c>
+      <c r="E40" s="4">
+        <v>481784</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="4">
+        <v>466968</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1832160</v>
+      </c>
+      <c r="D41" s="4">
+        <v>11375272</v>
+      </c>
+      <c r="E41" s="4">
+        <v>33186568</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project2 Data Spreadsheet & Chart_v1.xlsx
+++ b/Project2 Data Spreadsheet & Chart_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="25665" windowHeight="16605" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="25665" windowHeight="16605"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
   <si>
     <t>Scenario 1</t>
   </si>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>Grid = 15, Sim Rate = 10, Vis Rate = 5</t>
+  </si>
+  <si>
+    <t>Scenario 8</t>
+  </si>
+  <si>
+    <t>Scenario 9</t>
+  </si>
+  <si>
+    <t>Scenario 10</t>
+  </si>
+  <si>
+    <t>Scenario 11</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 10, Vis Rate = 10</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 10, Vis Rate = 15</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 20, Vis Rate = 1</t>
+  </si>
+  <si>
+    <t>Grid = 15, Sim Rate = 30, Vis Rate = 1</t>
   </si>
 </sst>
 </file>
@@ -489,11 +513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329201696"/>
-        <c:axId val="329206008"/>
+        <c:axId val="271376000"/>
+        <c:axId val="271374040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329201696"/>
+        <c:axId val="271376000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329206008"/>
+        <c:crossAx val="271374040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329206008"/>
+        <c:axId val="271374040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +546,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329201696"/>
+        <c:crossAx val="271376000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -569,13 +593,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 3)</a:t>
+              <a:t>Time of execution (Scenario 10)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8375871119558273E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -590,7 +620,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$15</c:f>
+              <c:f>Time!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -602,7 +632,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:f>Time!$B$56:$E$56</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -622,21 +652,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$15:$E$15</c:f>
+              <c:f>Time!$B$57:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>441912</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>443912</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>444328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>445064</c:v>
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5185180000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.954128000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.036035999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$16</c:f>
+              <c:f>Time!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -659,7 +689,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:f>Time!$B$56:$E$56</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -679,21 +709,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$16:$E$16</c:f>
+              <c:f>Time!$B$58:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>444416</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>445632</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>445984</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>446312</c:v>
+                  <c:v>18.136364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.918032999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.055275999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6859900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,7 +734,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$17</c:f>
+              <c:f>Time!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -716,7 +746,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:f>Time!$B$56:$E$56</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -736,21 +766,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$17:$E$17</c:f>
+              <c:f>Time!$B$59:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>446184</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>448168</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2586880</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12129312</c:v>
+                  <c:v>13.733945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27763887999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14055556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,11 +795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="337845776"/>
-        <c:axId val="337854008"/>
+        <c:axId val="341838496"/>
+        <c:axId val="341839280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337845776"/>
+        <c:axId val="341838496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +809,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337854008"/>
+        <c:crossAx val="341839280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -787,7 +817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337854008"/>
+        <c:axId val="341839280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +828,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337845776"/>
+        <c:crossAx val="341838496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -845,13 +875,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 4)</a:t>
+              <a:t>Time of execution (Scenario 11)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8375871119558273E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -866,7 +902,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$21</c:f>
+              <c:f>Time!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -878,7 +914,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:f>Time!$B$62:$E$62</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -898,21 +934,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$21:$E$21</c:f>
+              <c:f>Time!$B$63:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>461176</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>462952</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>463808</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>464136</c:v>
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6886799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.820754999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.527778999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +959,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$22</c:f>
+              <c:f>Time!$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,7 +971,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:f>Time!$B$62:$E$62</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -955,21 +991,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$22:$E$22</c:f>
+              <c:f>Time!$B$64:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>463648</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>464864</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>465288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>465576</c:v>
+                  <c:v>18.663550999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.848649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7756100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.378239000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,7 +1016,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$23</c:f>
+              <c:f>Time!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -992,7 +1028,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:f>Time!$B$62:$E$62</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1012,21 +1048,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$23:$E$23</c:f>
+              <c:f>Time!$B$65:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>465448</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>467304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>467696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>468664</c:v>
+                  <c:v>14.18868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.244444000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41604166999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31208332999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,11 +1077,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="337844208"/>
-        <c:axId val="337848912"/>
+        <c:axId val="126989272"/>
+        <c:axId val="126983784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337844208"/>
+        <c:axId val="126989272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1091,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337848912"/>
+        <c:crossAx val="126983784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337848912"/>
+        <c:axId val="126983784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1110,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337844208"/>
+        <c:crossAx val="126989272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,13 +1157,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 5)</a:t>
+              <a:t>Memory Usage (Scenario 1)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1142,7 +1176,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$27</c:f>
+              <c:f>Memory!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1154,7 +1188,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$26:$E$26</c:f>
+              <c:f>Memory!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1174,21 +1208,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$27:$E$27</c:f>
+              <c:f>Memory!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>461176</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>463176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>463808</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>464136</c:v>
+                  <c:v>461080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,7 +1233,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$28</c:f>
+              <c:f>Memory!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1211,7 +1245,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$26:$E$26</c:f>
+              <c:f>Memory!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1231,21 +1265,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$28:$E$28</c:f>
+              <c:f>Memory!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>463648</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>464936</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>465216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>465576</c:v>
+                  <c:v>463552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,7 +1290,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$29</c:f>
+              <c:f>Memory!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1268,7 +1302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$26:$E$26</c:f>
+              <c:f>Memory!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1288,21 +1322,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$29:$E$29</c:f>
+              <c:f>Memory!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>465448</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>467400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10264520</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3842704</c:v>
+                  <c:v>465352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9482696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6001856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,11 +1351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="337844992"/>
-        <c:axId val="337843816"/>
+        <c:axId val="363293368"/>
+        <c:axId val="363294152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337844992"/>
+        <c:axId val="363293368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1365,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337843816"/>
+        <c:crossAx val="363294152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1339,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337843816"/>
+        <c:axId val="363294152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,14 +1384,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337844992"/>
+        <c:crossAx val="363293368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1397,7 +1430,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 6)</a:t>
+              <a:t>Memory Usage (Scenario 2)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1418,7 +1451,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$33</c:f>
+              <c:f>Memory!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1430,7 +1463,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:f>Memory!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1450,21 +1483,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$33:$E$33</c:f>
+              <c:f>Memory!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1196056</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>463320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>463952</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>464440</c:v>
+                  <c:v>516136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>518768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>519288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,7 +1508,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$34</c:f>
+              <c:f>Memory!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1487,7 +1520,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:f>Memory!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1507,21 +1540,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$34:$E$34</c:f>
+              <c:f>Memory!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>463792</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>466128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>467272</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>466424</c:v>
+                  <c:v>518640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,7 +1565,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$35</c:f>
+              <c:f>Memory!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1544,7 +1577,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:f>Memory!$B$8:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1564,21 +1597,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$35:$E$35</c:f>
+              <c:f>Memory!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>466368</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>468792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>469184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>469608</c:v>
+                  <c:v>520736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2795712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14383064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,11 +1626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="337850480"/>
-        <c:axId val="337846560"/>
+        <c:axId val="363291800"/>
+        <c:axId val="363287488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337850480"/>
+        <c:axId val="363291800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1640,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337846560"/>
+        <c:crossAx val="363287488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +1648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337846560"/>
+        <c:axId val="363287488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1659,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337850480"/>
+        <c:crossAx val="363291800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1673,6 +1706,1110 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 3)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>441912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>444416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>445984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>446312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>446184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2586880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12129312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="363283568"/>
+        <c:axId val="363289840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="363283568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363289840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363289840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363283568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 4)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>461176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>465448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="363290232"/>
+        <c:axId val="363280824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="363290232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363280824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363280824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363290232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 5)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>461176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>465448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10264520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3842704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="363280040"/>
+        <c:axId val="363279256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="363280040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363279256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363279256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363280040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 6)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$32:$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>466368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>468792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>469184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>469608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="363282392"/>
+        <c:axId val="363279648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="363282392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363279648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363279648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363282392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
               <a:t>Memory Usage (Scenario 7)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
@@ -1869,11 +3006,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="337852048"/>
-        <c:axId val="337841856"/>
+        <c:axId val="363283960"/>
+        <c:axId val="363285136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337852048"/>
+        <c:axId val="363283960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +3020,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337841856"/>
+        <c:crossAx val="363285136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1891,7 +3028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337841856"/>
+        <c:axId val="363285136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +3039,283 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337852048"/>
+        <c:crossAx val="363283960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 8)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$44:$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$45:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$44:$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$46:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>465488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>491728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$44:$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$47:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>468128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2515416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12739488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="254808000"/>
+        <c:axId val="254810352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="254808000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254810352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254810352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254808000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2144,11 +3557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329213064"/>
-        <c:axId val="329211888"/>
+        <c:axId val="271376784"/>
+        <c:axId val="271377176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329213064"/>
+        <c:axId val="271376784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +3571,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329211888"/>
+        <c:crossAx val="271377176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +3579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329211888"/>
+        <c:axId val="271377176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +3590,835 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329213064"/>
+        <c:crossAx val="271376784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 9)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>466080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>589352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$53:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>468392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3196752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12058216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33869512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="254809960"/>
+        <c:axId val="254811136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="254809960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254811136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254811136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254809960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$56:$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$57:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$56:$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$58:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>464392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>465608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$56:$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$59:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>466160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2538256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7454608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22449840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="359592216"/>
+        <c:axId val="359593784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="359592216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="359593784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359593784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="359592216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Memory Usage (Scenario 11)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Push –t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$62:$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$63:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull –r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$62:$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$64:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>464488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>465776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>466056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffered –b 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Memory!$B$62:$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Non-Threaded</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simulation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentation Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Both Threaded -s -p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Memory!$B$65:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>466256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>468208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4532784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="359603584"/>
+        <c:axId val="359600056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="359603584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="359600056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359600056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="359603584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,11 +4660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329205616"/>
-        <c:axId val="329203264"/>
+        <c:axId val="271378744"/>
+        <c:axId val="271383056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329205616"/>
+        <c:axId val="271378744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +4674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329203264"/>
+        <c:crossAx val="271383056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2441,7 +4682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329203264"/>
+        <c:axId val="271383056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +4693,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329205616"/>
+        <c:crossAx val="271378744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2694,11 +4935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329205224"/>
-        <c:axId val="329209144"/>
+        <c:axId val="271384232"/>
+        <c:axId val="271386192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329205224"/>
+        <c:axId val="271384232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +4949,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329209144"/>
+        <c:crossAx val="271386192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2716,7 +4957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329209144"/>
+        <c:axId val="271386192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +4968,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329205224"/>
+        <c:crossAx val="271384232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2779,6 +5020,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3139,11 +5381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329202872"/>
-        <c:axId val="329210320"/>
+        <c:axId val="271384624"/>
+        <c:axId val="271383840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329202872"/>
+        <c:axId val="271384624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +5395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329210320"/>
+        <c:crossAx val="271383840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3161,7 +5403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329210320"/>
+        <c:axId val="271383840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,13 +5414,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329202872"/>
+        <c:crossAx val="271384624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3420,11 +5663,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329204048"/>
-        <c:axId val="329206400"/>
+        <c:axId val="271385800"/>
+        <c:axId val="363292192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329204048"/>
+        <c:axId val="271385800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +5677,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329206400"/>
+        <c:crossAx val="363292192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3442,7 +5685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329206400"/>
+        <c:axId val="363292192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3453,13 +5696,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329204048"/>
+        <c:crossAx val="271385800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3701,11 +5945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329211496"/>
-        <c:axId val="329211104"/>
+        <c:axId val="363292584"/>
+        <c:axId val="363293760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329211496"/>
+        <c:axId val="363292584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,7 +5959,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329211104"/>
+        <c:crossAx val="363293760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3723,7 +5967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329211104"/>
+        <c:axId val="363293760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,13 +5978,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329211496"/>
+        <c:crossAx val="363292584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3780,12 +6025,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 1)</a:t>
+              <a:t>Time of execution (Scenario 8)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8375871119558273E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3800,7 +6052,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$3</c:f>
+              <c:f>Time!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3812,7 +6064,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$2:$E$2</c:f>
+              <c:f>Time!$B$44:$E$44</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3832,21 +6084,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$3:$E$3</c:f>
+              <c:f>Time!$B$45:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>461080</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>462784</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>463712</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>464040</c:v>
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98097049999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8906692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9029495999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,7 +6109,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$4</c:f>
+              <c:f>Time!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3869,7 +6121,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$2:$E$2</c:f>
+              <c:f>Time!$B$44:$E$44</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3889,21 +6141,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$4:$E$4</c:f>
+              <c:f>Time!$B$46:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>463552</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>464768</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>465192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>465552</c:v>
+                  <c:v>1.4070961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1953897000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9249278000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0479102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +6166,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$5</c:f>
+              <c:f>Time!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3926,7 +6178,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$2:$E$2</c:f>
+              <c:f>Time!$B$44:$E$44</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3946,21 +6198,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$5:$E$5</c:f>
+              <c:f>Time!$B$47:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>465352</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>467240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9482696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6001856</c:v>
+                  <c:v>1.4438040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9970089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13881943999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10402778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3975,11 +6227,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329212280"/>
-        <c:axId val="329202088"/>
+        <c:axId val="359599272"/>
+        <c:axId val="359599664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329212280"/>
+        <c:axId val="359599272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3989,7 +6241,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329202088"/>
+        <c:crossAx val="359599664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3997,7 +6249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329202088"/>
+        <c:axId val="359599664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +6260,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329212280"/>
+        <c:crossAx val="359599272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4055,13 +6307,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Memory Usage (Scenario 2)</a:t>
+              <a:t>Time of execution (Scenario 9)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8375871119558273E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4076,7 +6334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$9</c:f>
+              <c:f>Time!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4088,7 +6346,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$8:$E$8</c:f>
+              <c:f>Time!$B$50:$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4108,21 +6366,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$9:$E$9</c:f>
+              <c:f>Time!$B$51:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>516136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>518128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>518768</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>519288</c:v>
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67414249999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7538069999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2496886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,7 +6391,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$10</c:f>
+              <c:f>Time!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4145,7 +6403,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$8:$E$8</c:f>
+              <c:f>Time!$B$50:$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4165,21 +6423,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$10:$E$10</c:f>
+              <c:f>Time!$B$52:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>518640</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>520504</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>520280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>520536</c:v>
+                  <c:v>1.2949548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4914243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3348837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4050454999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,7 +6448,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$A$11</c:f>
+              <c:f>Time!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4202,7 +6460,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Memory!$B$8:$E$8</c:f>
+              <c:f>Time!$B$50:$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4222,21 +6480,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Memory!$B$11:$E$11</c:f>
+              <c:f>Time!$B$53:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>520736</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>522592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2795712</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14383064</c:v>
+                  <c:v>0.98878630000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13866805600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13888890000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0416670000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,11 +6509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329202480"/>
-        <c:axId val="329204440"/>
+        <c:axId val="359610640"/>
+        <c:axId val="359613776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329202480"/>
+        <c:axId val="359610640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,7 +6523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329204440"/>
+        <c:crossAx val="359613776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4273,7 +6531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329204440"/>
+        <c:axId val="359613776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,7 +6542,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329202480"/>
+        <c:crossAx val="359610640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4522,6 +6780,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4736,6 +7122,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5029,10 +7543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5555,6 +8069,298 @@
         <v>0.13923611</v>
       </c>
     </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.98097049999999997</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1.8906692</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1.9029495999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1.4070961</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2.1953897000000002</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1.9249278000000001</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2.0479102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1.4438040000000001</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1.9970089</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.13881943999999999</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.10402778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1022</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.67414249999999998</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1.7538069999999999</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.2496886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1.2949548</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1.4914243</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1.3348837</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1.4050454999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.98878630000000001</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.13866805600000001</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.13888890000000001</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7.0416670000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1022</v>
+      </c>
+      <c r="C57" s="4">
+        <v>9.5185180000000003</v>
+      </c>
+      <c r="D57" s="4">
+        <v>17.954128000000001</v>
+      </c>
+      <c r="E57" s="4">
+        <v>18.036035999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4">
+        <v>18.136364</v>
+      </c>
+      <c r="C58" s="4">
+        <v>10.918032999999999</v>
+      </c>
+      <c r="D58" s="4">
+        <v>10.055275999999999</v>
+      </c>
+      <c r="E58" s="4">
+        <v>9.6859900000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4">
+        <v>13.733945</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.27763887999999998</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.14055556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1019</v>
+      </c>
+      <c r="C63" s="4">
+        <v>9.6886799999999997</v>
+      </c>
+      <c r="D63" s="4">
+        <v>18.820754999999998</v>
+      </c>
+      <c r="E63" s="4">
+        <v>18.527778999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4">
+        <v>18.663550999999998</v>
+      </c>
+      <c r="C64" s="4">
+        <v>10.848649</v>
+      </c>
+      <c r="D64" s="4">
+        <v>9.7756100000000004</v>
+      </c>
+      <c r="E64" s="4">
+        <v>10.378239000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="4">
+        <v>14.18868</v>
+      </c>
+      <c r="C65" s="4">
+        <v>22.244444000000001</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.41604166999999997</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.31208332999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5569,10 +8375,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6097,6 +8903,298 @@
         <v>33186568</v>
       </c>
     </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1196936</v>
+      </c>
+      <c r="C45" s="4">
+        <v>464544</v>
+      </c>
+      <c r="D45" s="4">
+        <v>465256</v>
+      </c>
+      <c r="E45" s="4">
+        <v>465776</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4">
+        <v>465488</v>
+      </c>
+      <c r="C46" s="4">
+        <v>547472</v>
+      </c>
+      <c r="D46" s="4">
+        <v>201048</v>
+      </c>
+      <c r="E46" s="4">
+        <v>491728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4">
+        <v>468128</v>
+      </c>
+      <c r="C47" s="4">
+        <v>470192</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2515416</v>
+      </c>
+      <c r="E47" s="4">
+        <v>12739488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1196840</v>
+      </c>
+      <c r="C51" s="4">
+        <v>464808</v>
+      </c>
+      <c r="D51" s="4">
+        <v>465520</v>
+      </c>
+      <c r="E51" s="4">
+        <v>466400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4">
+        <v>466080</v>
+      </c>
+      <c r="C52" s="4">
+        <v>589352</v>
+      </c>
+      <c r="D52" s="4">
+        <v>509376</v>
+      </c>
+      <c r="E52" s="4">
+        <v>512944</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="4">
+        <v>468392</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3196752</v>
+      </c>
+      <c r="D53" s="4">
+        <v>12058216</v>
+      </c>
+      <c r="E53" s="4">
+        <v>33869512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1196848</v>
+      </c>
+      <c r="C57" s="4">
+        <v>463592</v>
+      </c>
+      <c r="D57" s="4">
+        <v>464520</v>
+      </c>
+      <c r="E57" s="4">
+        <v>465040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4">
+        <v>464392</v>
+      </c>
+      <c r="C58" s="4">
+        <v>465608</v>
+      </c>
+      <c r="D58" s="4">
+        <v>465960</v>
+      </c>
+      <c r="E58" s="4">
+        <v>466288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4">
+        <v>466160</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2538256</v>
+      </c>
+      <c r="D59" s="4">
+        <v>7454608</v>
+      </c>
+      <c r="E59" s="4">
+        <v>22449840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1196944</v>
+      </c>
+      <c r="C63" s="4">
+        <v>463688</v>
+      </c>
+      <c r="D63" s="4">
+        <v>464688</v>
+      </c>
+      <c r="E63" s="4">
+        <v>465136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4">
+        <v>464488</v>
+      </c>
+      <c r="C64" s="4">
+        <v>465776</v>
+      </c>
+      <c r="D64" s="4">
+        <v>466056</v>
+      </c>
+      <c r="E64" s="4">
+        <v>466528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="4">
+        <v>466256</v>
+      </c>
+      <c r="C65" s="4">
+        <v>468208</v>
+      </c>
+      <c r="D65" s="4">
+        <v>211420</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4532784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Project2 Data Spreadsheet & Chart_v1.xlsx
+++ b/Project2 Data Spreadsheet & Chart_v1.xlsx
@@ -366,7 +366,157 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -385,6 +535,31 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -540,22 +715,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -578,24 +771,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -751,22 +926,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -789,24 +982,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -962,22 +1137,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -1000,24 +1193,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1173,22 +1348,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -1211,24 +1404,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1384,22 +1559,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -1422,24 +1615,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1595,22 +1770,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -1633,24 +1826,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1806,22 +1981,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -1844,24 +2037,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2017,22 +2192,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -2055,24 +2248,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2228,22 +2403,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -2266,24 +2459,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2439,22 +2614,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -2477,24 +2670,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2650,22 +2825,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -2688,24 +2881,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2861,22 +3036,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -2899,24 +3092,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3072,22 +3247,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -3110,24 +3303,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3283,22 +3458,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -3321,24 +3514,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3494,22 +3669,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -3532,24 +3725,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3705,22 +3880,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -3743,24 +3936,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3916,22 +4091,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -3954,24 +4147,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4127,22 +4302,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -4165,24 +4358,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4338,22 +4513,40 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -4376,199 +4569,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4804,11 +4804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214329984"/>
-        <c:axId val="214339968"/>
+        <c:axId val="163730560"/>
+        <c:axId val="163732096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214329984"/>
+        <c:axId val="163730560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,7 +4818,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214339968"/>
+        <c:crossAx val="163732096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4826,7 +4826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214339968"/>
+        <c:axId val="163732096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +4837,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214329984"/>
+        <c:crossAx val="163730560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5086,11 +5086,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214517248"/>
-        <c:axId val="214518784"/>
+        <c:axId val="164278272"/>
+        <c:axId val="164279808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214517248"/>
+        <c:axId val="164278272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5100,7 +5100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214518784"/>
+        <c:crossAx val="164279808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5108,7 +5108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214518784"/>
+        <c:axId val="164279808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,7 +5119,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214517248"/>
+        <c:crossAx val="164278272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5368,11 +5368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214541056"/>
-        <c:axId val="214542592"/>
+        <c:axId val="164187136"/>
+        <c:axId val="164193024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214541056"/>
+        <c:axId val="164187136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,7 +5382,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214542592"/>
+        <c:crossAx val="164193024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5390,7 +5390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214542592"/>
+        <c:axId val="164193024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5401,7 +5401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214541056"/>
+        <c:crossAx val="164187136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5453,7 +5453,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5643,11 +5642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214491520"/>
-        <c:axId val="214493056"/>
+        <c:axId val="165677696"/>
+        <c:axId val="165691776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214491520"/>
+        <c:axId val="165677696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,7 +5656,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214493056"/>
+        <c:crossAx val="165691776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5665,7 +5664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214493056"/>
+        <c:axId val="165691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5676,14 +5675,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214491520"/>
+        <c:crossAx val="165677696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5729,7 +5727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5919,11 +5916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214601088"/>
-        <c:axId val="214611072"/>
+        <c:axId val="165717888"/>
+        <c:axId val="165719424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214601088"/>
+        <c:axId val="165717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5933,7 +5930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214611072"/>
+        <c:crossAx val="165719424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5941,7 +5938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214611072"/>
+        <c:axId val="165719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5952,14 +5949,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214601088"/>
+        <c:crossAx val="165717888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6005,7 +6001,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6195,11 +6190,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216017536"/>
-        <c:axId val="216027520"/>
+        <c:axId val="209142912"/>
+        <c:axId val="209144448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216017536"/>
+        <c:axId val="209142912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6209,7 +6204,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216027520"/>
+        <c:crossAx val="209144448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6217,7 +6212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216027520"/>
+        <c:axId val="209144448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,14 +6223,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216017536"/>
+        <c:crossAx val="209142912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6281,7 +6275,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6471,11 +6464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216045440"/>
-        <c:axId val="216046976"/>
+        <c:axId val="203362688"/>
+        <c:axId val="203364224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216045440"/>
+        <c:axId val="203362688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6485,7 +6478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216046976"/>
+        <c:crossAx val="203364224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6493,7 +6486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216046976"/>
+        <c:axId val="203364224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6504,14 +6497,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216045440"/>
+        <c:crossAx val="203362688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6557,7 +6549,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6747,11 +6738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215696512"/>
-        <c:axId val="215698048"/>
+        <c:axId val="203390336"/>
+        <c:axId val="203396224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215696512"/>
+        <c:axId val="203390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6761,7 +6752,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215698048"/>
+        <c:crossAx val="203396224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6769,7 +6760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215698048"/>
+        <c:axId val="203396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,14 +6771,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215696512"/>
+        <c:crossAx val="203390336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6833,7 +6823,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7023,11 +7012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216072576"/>
-        <c:axId val="216074112"/>
+        <c:axId val="209525376"/>
+        <c:axId val="209531264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216072576"/>
+        <c:axId val="209525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7037,7 +7026,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216074112"/>
+        <c:crossAx val="209531264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7045,7 +7034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216074112"/>
+        <c:axId val="209531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7056,14 +7045,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216072576"/>
+        <c:crossAx val="209525376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7109,7 +7097,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7299,11 +7286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216104320"/>
-        <c:axId val="216106112"/>
+        <c:axId val="209581952"/>
+        <c:axId val="209583488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216104320"/>
+        <c:axId val="209581952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7313,7 +7300,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216106112"/>
+        <c:crossAx val="209583488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7321,7 +7308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216106112"/>
+        <c:axId val="209583488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7332,14 +7319,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216104320"/>
+        <c:crossAx val="209581952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7385,7 +7371,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7575,11 +7560,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216205952"/>
-        <c:axId val="216211840"/>
+        <c:axId val="209872000"/>
+        <c:axId val="209873536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216205952"/>
+        <c:axId val="209872000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7589,7 +7574,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216211840"/>
+        <c:crossAx val="209873536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7597,7 +7582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216211840"/>
+        <c:axId val="209873536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7608,14 +7593,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216205952"/>
+        <c:crossAx val="209872000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7850,11 +7834,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214706048"/>
-        <c:axId val="214707584"/>
+        <c:axId val="163770752"/>
+        <c:axId val="163772288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214706048"/>
+        <c:axId val="163770752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7864,7 +7848,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214707584"/>
+        <c:crossAx val="163772288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7872,7 +7856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214707584"/>
+        <c:axId val="163772288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7883,7 +7867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214706048"/>
+        <c:crossAx val="163770752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7936,7 +7920,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8126,11 +8109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216246144"/>
-        <c:axId val="216247680"/>
+        <c:axId val="209584512"/>
+        <c:axId val="209586048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216246144"/>
+        <c:axId val="209584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8140,7 +8123,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216247680"/>
+        <c:crossAx val="209586048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8148,7 +8131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216247680"/>
+        <c:axId val="209586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8159,14 +8142,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216246144"/>
+        <c:crossAx val="209584512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8212,7 +8194,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8402,11 +8383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216364160"/>
-        <c:axId val="216365696"/>
+        <c:axId val="209612160"/>
+        <c:axId val="209613952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216364160"/>
+        <c:axId val="209612160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8416,7 +8397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216365696"/>
+        <c:crossAx val="209613952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8424,7 +8405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216365696"/>
+        <c:axId val="209613952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8435,14 +8416,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216364160"/>
+        <c:crossAx val="209612160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8488,7 +8468,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8678,11 +8657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216387968"/>
-        <c:axId val="216389504"/>
+        <c:axId val="209717888"/>
+        <c:axId val="209719680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216387968"/>
+        <c:axId val="209717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8692,7 +8671,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216389504"/>
+        <c:crossAx val="209719680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8700,7 +8679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216389504"/>
+        <c:axId val="209719680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8711,14 +8690,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216387968"/>
+        <c:crossAx val="209717888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8985,11 +8963,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231733888"/>
-        <c:axId val="232862848"/>
+        <c:axId val="211101952"/>
+        <c:axId val="211107840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231733888"/>
+        <c:axId val="211101952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8998,7 +8976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232862848"/>
+        <c:crossAx val="211107840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9006,7 +8984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232862848"/>
+        <c:axId val="211107840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9017,7 +8995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231733888"/>
+        <c:crossAx val="211101952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9286,11 +9264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194046208"/>
-        <c:axId val="228663296"/>
+        <c:axId val="211138048"/>
+        <c:axId val="211139584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194046208"/>
+        <c:axId val="211138048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9299,7 +9277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228663296"/>
+        <c:crossAx val="211139584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9307,7 +9285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228663296"/>
+        <c:axId val="211139584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9318,7 +9296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194046208"/>
+        <c:crossAx val="211138048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9592,11 +9570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233367424"/>
-        <c:axId val="233368960"/>
+        <c:axId val="213025920"/>
+        <c:axId val="213027456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233367424"/>
+        <c:axId val="213025920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9605,7 +9583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233368960"/>
+        <c:crossAx val="213027456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9613,7 +9591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233368960"/>
+        <c:axId val="213027456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9624,7 +9602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233367424"/>
+        <c:crossAx val="213025920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9897,11 +9875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192105472"/>
-        <c:axId val="192111360"/>
+        <c:axId val="213401984"/>
+        <c:axId val="213403520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192105472"/>
+        <c:axId val="213401984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9910,7 +9888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192111360"/>
+        <c:crossAx val="213403520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9918,7 +9896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192111360"/>
+        <c:axId val="213403520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9929,7 +9907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192105472"/>
+        <c:crossAx val="213401984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10171,11 +10149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214758528"/>
-        <c:axId val="214760064"/>
+        <c:axId val="164060544"/>
+        <c:axId val="164062336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214758528"/>
+        <c:axId val="164060544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10185,7 +10163,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214760064"/>
+        <c:crossAx val="164062336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10193,7 +10171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214760064"/>
+        <c:axId val="164062336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10204,7 +10182,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214758528"/>
+        <c:crossAx val="164060544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10446,11 +10424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214655360"/>
-        <c:axId val="214656896"/>
+        <c:axId val="164100736"/>
+        <c:axId val="163844480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214655360"/>
+        <c:axId val="164100736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10460,7 +10438,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214656896"/>
+        <c:crossAx val="163844480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10468,7 +10446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214656896"/>
+        <c:axId val="163844480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10479,7 +10457,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214655360"/>
+        <c:crossAx val="164100736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10892,11 +10870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214838656"/>
-        <c:axId val="214840448"/>
+        <c:axId val="163898112"/>
+        <c:axId val="163899648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214838656"/>
+        <c:axId val="163898112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10906,7 +10884,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214840448"/>
+        <c:crossAx val="163899648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10914,7 +10892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214840448"/>
+        <c:axId val="163899648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10925,7 +10903,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214838656"/>
+        <c:crossAx val="163898112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11174,11 +11152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214879232"/>
-        <c:axId val="214881024"/>
+        <c:axId val="163913088"/>
+        <c:axId val="163927168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214879232"/>
+        <c:axId val="163913088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11188,7 +11166,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214881024"/>
+        <c:crossAx val="163927168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11196,7 +11174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214881024"/>
+        <c:axId val="163927168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11207,7 +11185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214879232"/>
+        <c:crossAx val="163913088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11456,11 +11434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214972672"/>
-        <c:axId val="214974464"/>
+        <c:axId val="163965568"/>
+        <c:axId val="163967360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214972672"/>
+        <c:axId val="163965568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11470,7 +11448,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214974464"/>
+        <c:crossAx val="163967360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11478,7 +11456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214974464"/>
+        <c:axId val="163967360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11489,7 +11467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214972672"/>
+        <c:crossAx val="163965568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11738,11 +11716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215008768"/>
-        <c:axId val="215010304"/>
+        <c:axId val="164005376"/>
+        <c:axId val="164006912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215008768"/>
+        <c:axId val="164005376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11752,7 +11730,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215010304"/>
+        <c:crossAx val="164006912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11760,7 +11738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215010304"/>
+        <c:axId val="164006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11771,7 +11749,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215008768"/>
+        <c:crossAx val="164005376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12020,11 +11998,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215036288"/>
-        <c:axId val="215037824"/>
+        <c:axId val="164246272"/>
+        <c:axId val="164247808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215036288"/>
+        <c:axId val="164246272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12034,7 +12012,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215037824"/>
+        <c:crossAx val="164247808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12042,7 +12020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215037824"/>
+        <c:axId val="164247808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12053,7 +12031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215036288"/>
+        <c:crossAx val="164246272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12900,280 +12878,280 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="171" dataDxfId="172" headerRowBorderDxfId="178" tableBorderDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" tableBorderDxfId="176">
   <autoFilter ref="A2:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 5" dataDxfId="177"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="176"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="175"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="174"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="173"/>
+    <tableColumn id="1" name="Scenario 5" dataDxfId="175"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="174"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="173"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="172"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G26:K29" totalsRowShown="0" headerRowDxfId="90" dataDxfId="91" headerRowBorderDxfId="97" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G26:K29" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
   <autoFilter ref="G26:K29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 11" dataDxfId="96"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="95"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="94"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="93"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="92"/>
+    <tableColumn id="1" name="Scenario 11" dataDxfId="94"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="93"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="92"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="91"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:E5" totalsRowShown="0" headerRowDxfId="81" dataDxfId="82" headerRowBorderDxfId="88" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:E5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86">
   <autoFilter ref="A2:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 1" dataDxfId="87"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="86"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="85"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="84"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="83"/>
+    <tableColumn id="1" name="Scenario 1" dataDxfId="85"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="84"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="83"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="82"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A8:E11" totalsRowShown="0" headerRowDxfId="72" dataDxfId="73" headerRowBorderDxfId="79" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A8:E11" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77">
   <autoFilter ref="A8:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 6" dataDxfId="78"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="77"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="76"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="75"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="74"/>
+    <tableColumn id="1" name="Scenario 6" dataDxfId="76"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="75"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="74"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="73"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A14:E17" totalsRowShown="0" headerRowDxfId="63" dataDxfId="64" headerRowBorderDxfId="70" tableBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A14:E17" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68">
   <autoFilter ref="A14:E17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 7" dataDxfId="69"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="68"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="67"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="66"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="65"/>
+    <tableColumn id="1" name="Scenario 7" dataDxfId="67"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="66"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="65"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="64"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A20:E23" totalsRowShown="0" headerRowDxfId="54" dataDxfId="55" headerRowBorderDxfId="61" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A20:E23" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
   <autoFilter ref="A20:E23"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 8" dataDxfId="60"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="59"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="58"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="57"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="56"/>
+    <tableColumn id="1" name="Scenario 8" dataDxfId="58"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="57"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="56"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="55"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A26:E29" totalsRowShown="0" headerRowDxfId="45" dataDxfId="46" headerRowBorderDxfId="52" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A26:E29" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
   <autoFilter ref="A26:E29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 9" dataDxfId="51"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="50"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="49"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="48"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="47"/>
+    <tableColumn id="1" name="Scenario 9" dataDxfId="49"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="48"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="47"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="46"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="G2:K5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="37" headerRowBorderDxfId="43" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="G2:K5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
   <autoFilter ref="G2:K5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 1" dataDxfId="42"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="41"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="40"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="39"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="38"/>
+    <tableColumn id="1" name="Scenario 1" dataDxfId="40"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="39"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="38"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="37"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="G8:K11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28" headerRowBorderDxfId="34" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="G8:K11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="G8:K11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 6" dataDxfId="33"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="32"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="31"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="30"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="29"/>
+    <tableColumn id="1" name="Scenario 6" dataDxfId="31"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="30"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="29"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="28"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="G14:K17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19" headerRowBorderDxfId="25" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="G14:K17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="G14:K17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 7" dataDxfId="24"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="23"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="22"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="21"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="20"/>
+    <tableColumn id="1" name="Scenario 7" dataDxfId="22"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="21"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="20"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="19"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="G20:K23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" headerRowBorderDxfId="16" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="G20:K23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="G20:K23"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 8" dataDxfId="15"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="14"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="13"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="12"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="11"/>
+    <tableColumn id="1" name="Scenario 8" dataDxfId="13"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="12"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="11"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="10"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A8:E11" totalsRowShown="0" headerRowDxfId="162" dataDxfId="163" headerRowBorderDxfId="169" tableBorderDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A8:E11" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167">
   <autoFilter ref="A8:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 1" dataDxfId="168"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="167"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="166"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="165"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="164"/>
+    <tableColumn id="1" name="Scenario 1" dataDxfId="166"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="165"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="164"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="163"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="G26:K29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="G26:K29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="G26:K29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 9" dataDxfId="6"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="5"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="4"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="3"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="2"/>
+    <tableColumn id="1" name="Scenario 9" dataDxfId="4"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="3"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="2"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="1"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:E17" totalsRowShown="0" headerRowDxfId="153" dataDxfId="154" headerRowBorderDxfId="160" tableBorderDxfId="161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:E17" totalsRowShown="0" headerRowDxfId="161" dataDxfId="159" headerRowBorderDxfId="160" tableBorderDxfId="158">
   <autoFilter ref="A14:E17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 4" dataDxfId="159"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="158"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="157"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="156"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="155"/>
+    <tableColumn id="1" name="Scenario 4" dataDxfId="157"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="156"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="155"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="154"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A20:E23" totalsRowShown="0" headerRowDxfId="144" dataDxfId="145" headerRowBorderDxfId="151" tableBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A20:E23" totalsRowShown="0" headerRowDxfId="152" dataDxfId="150" headerRowBorderDxfId="151" tableBorderDxfId="149">
   <autoFilter ref="A20:E23"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 10" dataDxfId="150"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="149"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="148"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="147"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="146"/>
+    <tableColumn id="1" name="Scenario 10" dataDxfId="148"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="147"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="146"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="145"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A26:E29" totalsRowShown="0" headerRowDxfId="135" dataDxfId="136" headerRowBorderDxfId="142" tableBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A26:E29" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140">
   <autoFilter ref="A26:E29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 11" dataDxfId="141"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="140"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="139"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="138"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="137"/>
+    <tableColumn id="1" name="Scenario 11" dataDxfId="139"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="138"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="137"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="136"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="G2:K5" totalsRowShown="0" headerRowDxfId="126" dataDxfId="127" headerRowBorderDxfId="133" tableBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="G2:K5" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
   <autoFilter ref="G2:K5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 5" dataDxfId="132"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="131"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="130"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="129"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="128"/>
+    <tableColumn id="1" name="Scenario 5" dataDxfId="130"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="129"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="128"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="127"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="G8:K11" totalsRowShown="0" headerRowDxfId="117" dataDxfId="118" headerRowBorderDxfId="124" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="G8:K11" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122">
   <autoFilter ref="G8:K11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 1" dataDxfId="123"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="122"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="121"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="120"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="119"/>
+    <tableColumn id="1" name="Scenario 1" dataDxfId="121"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="120"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="119"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="118"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="G14:K17" totalsRowShown="0" headerRowDxfId="108" dataDxfId="109" headerRowBorderDxfId="115" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="G14:K17" totalsRowShown="0" headerRowDxfId="116" dataDxfId="114" headerRowBorderDxfId="115" tableBorderDxfId="113">
   <autoFilter ref="G14:K17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 4" dataDxfId="114"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="113"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="112"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="111"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="110"/>
+    <tableColumn id="1" name="Scenario 4" dataDxfId="112"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="111"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="110"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="109"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="G20:K23" totalsRowShown="0" headerRowDxfId="99" dataDxfId="100" headerRowBorderDxfId="106" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="G20:K23" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104">
   <autoFilter ref="G20:K23"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Scenario 10" dataDxfId="105"/>
-    <tableColumn id="2" name="Non-Threaded" dataDxfId="104"/>
-    <tableColumn id="3" name="Simulation Threaded" dataDxfId="103"/>
-    <tableColumn id="4" name="Presentation Threaded" dataDxfId="102"/>
-    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="101"/>
+    <tableColumn id="1" name="Scenario 10" dataDxfId="103"/>
+    <tableColumn id="2" name="Non-Threaded" dataDxfId="102"/>
+    <tableColumn id="3" name="Simulation Threaded" dataDxfId="101"/>
+    <tableColumn id="4" name="Presentation Threaded" dataDxfId="100"/>
+    <tableColumn id="5" name="Both Threaded -s -p" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13466,8 +13444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:E53"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14284,8 +14262,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15048,7 +15026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>25</v>
       </c>
@@ -16729,8 +16707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
